--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262231.632616171</v>
+        <v>2259687.410680144</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283194</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9548792.269784357</v>
+        <v>9548792.269784356</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>48.47711506061723</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -674,7 +674,7 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368131</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -713,10 +713,10 @@
         <v>187.52558716632</v>
       </c>
       <c r="U2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>37.11181591693609</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,16 +789,16 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>172.0471506133254</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>36.39469600159763</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -817,22 +817,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>77.92745474532508</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>66.44208389990469</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>92.36941963441548</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>99.45377603815227</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>12.28773869504416</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I5" t="n">
-        <v>94.24014755885167</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>140.3157839734241</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>79.52340720082238</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7303505775365</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.65565115906497</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.85559031833735</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>141.7193093041456</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8352527003384</v>
+        <v>80.69266863634614</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>45.55897913915369</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>143.3991040965659</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.83028812346051</v>
+        <v>411.8302881234605</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.6042843978725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.8916290734613</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>54.392995651851</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0678569565025</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>50.18533999393107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1215,10 +1215,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>140.65132526412</v>
+        <v>131.0490433666318</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>135.4855929438821</v>
       </c>
       <c r="H9" t="n">
-        <v>94.2918076971922</v>
+        <v>94.29180769719213</v>
       </c>
       <c r="I9" t="n">
-        <v>25.42862793155201</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,10 +1260,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1730436088544</v>
+        <v>137.1730436088542</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.675990284458</v>
       </c>
       <c r="U9" t="n">
         <v>225.8191502244401</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>147.8231828460566</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>56.8521574176505</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4333581046933</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6085557685653</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2570757305868</v>
+        <v>107.2570757305865</v>
       </c>
       <c r="S10" t="n">
         <v>196.8715076418046</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.290298616738</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340681971946</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181939</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366753474</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>148.2735510725068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695628</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>142.9017229193759</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184504</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,16 +2722,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183167</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.0268615654972</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701366</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>51.36569740310382</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3032,10 +3032,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>25.52471385612643</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358384</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460236</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>125.2851635392057</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3554,7 +3554,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>55.52079624060465</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611596726</v>
       </c>
     </row>
     <row r="41">
@@ -3904,19 +3904,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.52471385613316</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057049</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4144,13 +4144,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>91.89996056624804</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609172</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>210.8831693494283</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="C2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="D2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="E2" t="n">
-        <v>161.9163864599159</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="F2" t="n">
-        <v>154.9708857107125</v>
+        <v>344.3906707271973</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>331.1605361513811</v>
       </c>
       <c r="H2" t="n">
         <v>141.7407511348962</v>
@@ -4328,52 +4328,52 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>738.6222485201474</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823979</v>
+        <v>578.2426392372655</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659131</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="U2" t="n">
-        <v>210.8831693494283</v>
+        <v>388.8228542207806</v>
       </c>
       <c r="V2" t="n">
-        <v>210.8831693494283</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="W2" t="n">
-        <v>210.8831693494283</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="X2" t="n">
-        <v>210.8831693494283</v>
+        <v>351.3361714764008</v>
       </c>
       <c r="Y2" t="n">
-        <v>210.8831693494283</v>
+        <v>351.3361714764008</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>425.0342726003555</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>425.0342726003555</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>276.0998629391042</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>116.8624079336487</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
         <v>15.0020469733056</v>
@@ -4410,49 +4410,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546605</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476349</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198761</v>
+        <v>598.8192732198763</v>
       </c>
       <c r="T3" t="n">
-        <v>425.0342726003555</v>
+        <v>409.3994882033915</v>
       </c>
       <c r="U3" t="n">
-        <v>425.0342726003555</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="V3" t="n">
-        <v>425.0342726003555</v>
+        <v>219.9797031869066</v>
       </c>
       <c r="W3" t="n">
-        <v>425.0342726003555</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>425.0342726003555</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>425.0342726003555</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>560.6825636487949</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="C4" t="n">
-        <v>391.7463807208881</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="D4" t="n">
-        <v>241.6297413085523</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="E4" t="n">
-        <v>93.71664772615921</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="H4" t="n">
         <v>15.0020469733056</v>
@@ -4489,49 +4489,49 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>118.7527324484196</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>285.9838492295953</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638719</v>
+        <v>471.6341805242521</v>
       </c>
       <c r="O4" t="n">
-        <v>652.2303032981984</v>
+        <v>634.3723839608023</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652798</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652798</v>
+        <v>615.938338957512</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652798</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652798</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652798</v>
+        <v>426.5185539410271</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652798</v>
+        <v>359.4053378805173</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652798</v>
+        <v>359.4053378805173</v>
       </c>
       <c r="X4" t="n">
-        <v>560.6825636487949</v>
+        <v>169.9855528640325</v>
       </c>
       <c r="Y4" t="n">
-        <v>560.6825636487949</v>
+        <v>169.9855528640325</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.5810813959149</v>
+        <v>823.5252186838738</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2786373207477</v>
+        <v>823.5252186838738</v>
       </c>
       <c r="D5" t="n">
-        <v>148.2786373207477</v>
+        <v>465.2595200771233</v>
       </c>
       <c r="E5" t="n">
-        <v>148.2786373207477</v>
+        <v>364.8011604426261</v>
       </c>
       <c r="F5" t="n">
-        <v>141.3331365715442</v>
+        <v>357.8556596934226</v>
       </c>
       <c r="G5" t="n">
-        <v>128.9212793038229</v>
+        <v>345.4438024257013</v>
       </c>
       <c r="H5" t="n">
-        <v>128.9212793038229</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I5" t="n">
         <v>33.72921106255854</v>
@@ -4595,22 +4595,22 @@
         <v>1544.727438003256</v>
       </c>
       <c r="T5" t="n">
-        <v>1332.709567064687</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="U5" t="n">
-        <v>1332.709567064687</v>
+        <v>1544.727438003256</v>
       </c>
       <c r="V5" t="n">
-        <v>1001.646679721117</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="W5" t="n">
-        <v>1001.646679721117</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="X5" t="n">
-        <v>628.1809214600366</v>
+        <v>1213.664550659686</v>
       </c>
       <c r="Y5" t="n">
-        <v>628.1809214600366</v>
+        <v>823.5252186838738</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>703.9743733226201</v>
+        <v>192.966666068014</v>
       </c>
       <c r="C6" t="n">
-        <v>529.5213440414931</v>
+        <v>192.966666068014</v>
       </c>
       <c r="D6" t="n">
-        <v>529.5213440414931</v>
+        <v>192.966666068014</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1946701012685</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6601121281534</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5587479084195</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="H6" t="n">
-        <v>67.92677704067708</v>
+        <v>33.72921106255854</v>
       </c>
       <c r="I6" t="n">
         <v>33.72921106255854</v>
       </c>
       <c r="J6" t="n">
-        <v>67.9405380666762</v>
+        <v>59.04473788968937</v>
       </c>
       <c r="K6" t="n">
-        <v>451.1842149794078</v>
+        <v>180.4678301599682</v>
       </c>
       <c r="L6" t="n">
-        <v>660.7750882322384</v>
+        <v>390.0587034127988</v>
       </c>
       <c r="M6" t="n">
-        <v>924.7146197277258</v>
+        <v>653.9982349082861</v>
       </c>
       <c r="N6" t="n">
-        <v>1210.048490161058</v>
+        <v>939.3321053416189</v>
       </c>
       <c r="O6" t="n">
-        <v>1448.853441912517</v>
+        <v>1356.731092240781</v>
       </c>
       <c r="P6" t="n">
         <v>1621.182402866226</v>
@@ -4674,22 +4674,22 @@
         <v>1543.309735648992</v>
       </c>
       <c r="T6" t="n">
-        <v>1543.309735648992</v>
+        <v>1347.691013115832</v>
       </c>
       <c r="U6" t="n">
-        <v>1315.193318779964</v>
+        <v>1266.183267018513</v>
       </c>
       <c r="V6" t="n">
-        <v>1080.041210548221</v>
+        <v>1031.03115878677</v>
       </c>
       <c r="W6" t="n">
-        <v>1080.041210548221</v>
+        <v>776.7938020585689</v>
       </c>
       <c r="X6" t="n">
-        <v>872.1897103426882</v>
+        <v>568.942301853036</v>
       </c>
       <c r="Y6" t="n">
-        <v>872.1897103426882</v>
+        <v>361.1820030880821</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>352.7820334028012</v>
+        <v>330.7357979728046</v>
       </c>
       <c r="C7" t="n">
-        <v>183.8458504748943</v>
+        <v>330.7357979728046</v>
       </c>
       <c r="D7" t="n">
-        <v>33.72921106255854</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="E7" t="n">
-        <v>33.72921106255854</v>
+        <v>180.6191585604689</v>
       </c>
       <c r="F7" t="n">
         <v>33.72921106255854</v>
@@ -4747,28 +4747,28 @@
         <v>1293.13166510086</v>
       </c>
       <c r="R7" t="n">
-        <v>1247.11249425323</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="S7" t="n">
-        <v>1044.640247413532</v>
+        <v>1175.471604442305</v>
       </c>
       <c r="T7" t="n">
-        <v>1044.640247413532</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="U7" t="n">
-        <v>1044.640247413532</v>
+        <v>951.0604452177427</v>
       </c>
       <c r="V7" t="n">
-        <v>1044.640247413532</v>
+        <v>696.3759570118558</v>
       </c>
       <c r="W7" t="n">
-        <v>755.223077376571</v>
+        <v>551.5283771163347</v>
       </c>
       <c r="X7" t="n">
-        <v>755.223077376571</v>
+        <v>551.5283771163347</v>
       </c>
       <c r="Y7" t="n">
-        <v>534.4304982330409</v>
+        <v>330.7357979728046</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>432.2133502005267</v>
+        <v>1288.72325355387</v>
       </c>
       <c r="C8" t="n">
-        <v>63.25083326011496</v>
+        <v>1288.72325355387</v>
       </c>
       <c r="D8" t="n">
-        <v>63.25083326011496</v>
+        <v>930.4575549471197</v>
       </c>
       <c r="E8" t="n">
-        <v>63.25083326011496</v>
+        <v>544.6693023488755</v>
       </c>
       <c r="F8" t="n">
-        <v>56.30533251091149</v>
+        <v>537.723801599672</v>
       </c>
       <c r="G8" t="n">
-        <v>44.35554652761805</v>
+        <v>121.7336115759745</v>
       </c>
       <c r="H8" t="n">
-        <v>44.35554652761805</v>
+        <v>121.7336115759745</v>
       </c>
       <c r="I8" t="n">
-        <v>44.35554652761805</v>
+        <v>44.35554652761839</v>
       </c>
       <c r="J8" t="n">
-        <v>156.8927045872695</v>
+        <v>156.8927045872711</v>
       </c>
       <c r="K8" t="n">
-        <v>376.2952505158974</v>
+        <v>376.2952505159005</v>
       </c>
       <c r="L8" t="n">
-        <v>685.3852714985237</v>
+        <v>685.3852714985292</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.976912556938</v>
+        <v>1060.976912556946</v>
       </c>
       <c r="N8" t="n">
-        <v>1447.259827415481</v>
+        <v>1447.259827415491</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.680568975101</v>
+        <v>1798.680568975113</v>
       </c>
       <c r="P8" t="n">
-        <v>2064.109040631078</v>
+        <v>2064.109040631091</v>
       </c>
       <c r="Q8" t="n">
-        <v>2215.262022208115</v>
+        <v>2215.262022208131</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.777326380902</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="S8" t="n">
-        <v>2217.777326380902</v>
+        <v>2086.57366065015</v>
       </c>
       <c r="T8" t="n">
-        <v>2217.777326380902</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="U8" t="n">
-        <v>1964.173430465243</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="V8" t="n">
-        <v>1633.110543121672</v>
+        <v>2031.631240799796</v>
       </c>
       <c r="W8" t="n">
-        <v>1582.41828050154</v>
+        <v>1678.862585529682</v>
       </c>
       <c r="X8" t="n">
-        <v>1208.95252224046</v>
+        <v>1678.862585529682</v>
       </c>
       <c r="Y8" t="n">
-        <v>818.8131902646485</v>
+        <v>1288.72325355387</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>777.901943780611</v>
+        <v>583.2797313720848</v>
       </c>
       <c r="C9" t="n">
-        <v>603.448914499484</v>
+        <v>408.8267020909578</v>
       </c>
       <c r="D9" t="n">
-        <v>461.3768687781507</v>
+        <v>276.453931013552</v>
       </c>
       <c r="E9" t="n">
-        <v>302.1394137726951</v>
+        <v>276.453931013552</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1394137726951</v>
+        <v>276.453931013552</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2852794859455</v>
+        <v>139.5997967268024</v>
       </c>
       <c r="H9" t="n">
-        <v>70.04102928676149</v>
+        <v>44.35554652761839</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35554652761805</v>
+        <v>44.35554652761839</v>
       </c>
       <c r="J9" t="n">
-        <v>92.56405995424001</v>
+        <v>92.56405995424106</v>
       </c>
       <c r="K9" t="n">
-        <v>383.9223374026504</v>
+        <v>470.074039413733</v>
       </c>
       <c r="L9" t="n">
-        <v>932.8222256819238</v>
+        <v>732.2770152434099</v>
       </c>
       <c r="M9" t="n">
-        <v>1258.157599332028</v>
+        <v>1057.612388893516</v>
       </c>
       <c r="N9" t="n">
-        <v>1606.51227717278</v>
+        <v>1606.512277172794</v>
       </c>
       <c r="O9" t="n">
-        <v>1902.968955587931</v>
+        <v>1902.968955587946</v>
       </c>
       <c r="P9" t="n">
-        <v>2121.568509855259</v>
+        <v>2121.568509855275</v>
       </c>
       <c r="Q9" t="n">
-        <v>2217.777326380902</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="R9" t="n">
-        <v>2217.777326380902</v>
+        <v>2217.777326380919</v>
       </c>
       <c r="S9" t="n">
-        <v>2079.218696472969</v>
+        <v>2079.218696472986</v>
       </c>
       <c r="T9" t="n">
-        <v>2079.218696472969</v>
+        <v>1884.596484064442</v>
       </c>
       <c r="U9" t="n">
-        <v>1851.11854473111</v>
+        <v>1656.496332322584</v>
       </c>
       <c r="V9" t="n">
-        <v>1615.966436499367</v>
+        <v>1421.344224090841</v>
       </c>
       <c r="W9" t="n">
-        <v>1361.729079771166</v>
+        <v>1167.10686736264</v>
       </c>
       <c r="X9" t="n">
-        <v>1153.877579565633</v>
+        <v>959.2553671571068</v>
       </c>
       <c r="Y9" t="n">
-        <v>946.1172808006791</v>
+        <v>751.4950683921529</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>470.0887551335047</v>
+        <v>248.6719156595192</v>
       </c>
       <c r="C10" t="n">
-        <v>470.0887551335047</v>
+        <v>191.2454940255288</v>
       </c>
       <c r="D10" t="n">
-        <v>470.0887551335047</v>
+        <v>191.2454940255288</v>
       </c>
       <c r="E10" t="n">
-        <v>322.1756615511115</v>
+        <v>191.2454940255288</v>
       </c>
       <c r="F10" t="n">
-        <v>322.1756615511115</v>
+        <v>44.35554652761839</v>
       </c>
       <c r="G10" t="n">
-        <v>154.0611584150577</v>
+        <v>44.35554652761839</v>
       </c>
       <c r="H10" t="n">
-        <v>154.0611584150577</v>
+        <v>44.35554652761839</v>
       </c>
       <c r="I10" t="n">
-        <v>44.35554652761805</v>
+        <v>44.35554652761839</v>
       </c>
       <c r="J10" t="n">
-        <v>60.95254262691969</v>
+        <v>60.95254262692048</v>
       </c>
       <c r="K10" t="n">
-        <v>218.0633423274019</v>
+        <v>218.0633423274034</v>
       </c>
       <c r="L10" t="n">
-        <v>474.6375091918418</v>
+        <v>474.6375091918442</v>
       </c>
       <c r="M10" t="n">
-        <v>755.5481168921685</v>
+        <v>755.5481168921719</v>
       </c>
       <c r="N10" t="n">
-        <v>1035.213914629315</v>
+        <v>1035.213914629319</v>
       </c>
       <c r="O10" t="n">
-        <v>1277.514248546126</v>
+        <v>1277.514248546132</v>
       </c>
       <c r="P10" t="n">
-        <v>1461.323360659235</v>
+        <v>1461.323360659241</v>
       </c>
       <c r="Q10" t="n">
-        <v>1505.148182155963</v>
+        <v>1505.148182155969</v>
       </c>
       <c r="R10" t="n">
-        <v>1396.807701620017</v>
+        <v>1396.807701620023</v>
       </c>
       <c r="S10" t="n">
-        <v>1197.947592890921</v>
+        <v>1197.947592890928</v>
       </c>
       <c r="T10" t="n">
-        <v>1197.947592890921</v>
+        <v>974.4220387326063</v>
       </c>
       <c r="U10" t="n">
-        <v>908.8222714796134</v>
+        <v>974.4220387326063</v>
       </c>
       <c r="V10" t="n">
-        <v>908.8222714796134</v>
+        <v>719.7375505267195</v>
       </c>
       <c r="W10" t="n">
-        <v>619.4051014426527</v>
+        <v>430.3203804897589</v>
       </c>
       <c r="X10" t="n">
-        <v>619.4051014426527</v>
+        <v>430.3203804897589</v>
       </c>
       <c r="Y10" t="n">
-        <v>619.4051014426527</v>
+        <v>430.3203804897589</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5045,16 +5045,16 @@
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123343</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.6673633290469</v>
+        <v>695.5020655703009</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>695.5020655703009</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>545.3854261579652</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>397.4723325755721</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5212,37 +5212,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279792</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853351</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.96308358025</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832653</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487557</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510498</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854696</v>
       </c>
       <c r="V13" t="n">
-        <v>1788.515128237796</v>
+        <v>1433.701365648809</v>
       </c>
       <c r="W13" t="n">
-        <v>1499.097958200836</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X13" t="n">
-        <v>1271.108407302818</v>
+        <v>916.2946447138311</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.315828159288</v>
+        <v>695.5020655703009</v>
       </c>
     </row>
     <row r="14">
@@ -5258,43 +5258,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,22 +5303,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397181</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820876</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>634.334587849125</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5510,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,22 +5592,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,31 +5771,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5987,22 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6224,16 +6224,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
@@ -6242,7 +6242,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6309,22 +6309,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622211</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343142</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219785</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E28" t="n">
-        <v>449.3439841395854</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="F28" t="n">
-        <v>302.454036641675</v>
+        <v>215.8238677453428</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2579373565549</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>135.2579373565549</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797189</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038287</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.140538179769</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570812</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279797</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580255</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832658</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832658</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176856</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970969</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934008</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035991</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892461</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,52 +6449,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123002</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>740.5562989961526</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1368.15426255076</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2395.078540748843</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,10 +6677,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,7 +6692,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192616</v>
@@ -6710,37 +6710,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803938</v>
@@ -6783,13 +6783,13 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1058.183521551621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1655.562009178173</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2283.159972732779</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
         <v>2283.159972732779</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171305</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>564.5188827892237</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>414.4022433768879</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>266.4891497944948</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>119.5992022965844</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782958</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6932,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6953,10 +6953,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452613</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718132</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>620.8230468926974</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>470.7064074803617</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2253.366709591041</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7202,10 +7202,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7251,22 +7251,22 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
         <v>2319.799627685893</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797189</v>
@@ -7336,46 +7336,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910811</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>120.6800663848338</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>454.6048385560544</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>949.9304447718132</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718132</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171374</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892305</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768947</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497945016</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>119.5992022965912</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>119.5992022965912</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>119.5992022965912</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7573,46 +7573,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797816</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570825</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.08939327981</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.91737983267</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487574</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487574</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831772</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625885</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588925</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.896109690907</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473771</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,37 +7661,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,10 +7719,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803938</v>
@@ -7731,22 +7731,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516144</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969303</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647281</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368213</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>481.4479471244855</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>333.5348535420924</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>186.644906044182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>186.644906044182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782958</v>
@@ -7828,28 +7828,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949679</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8140,19 +8140,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457085</v>
+        <v>152.808936860374</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>116.9682609530348</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>8.985656744431139</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8307,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>180.3980153007106</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>93.05287845629886</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8532,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>132.1287118569131</v>
+        <v>219.1506330802266</v>
       </c>
       <c r="L9" t="n">
-        <v>289.5928408581798</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>202.570919634872</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.32522655688346</v>
+        <v>30.325226556883</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-1.204770029246527e-12</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.3624843553965</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>103.8640922513212</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.532239727193229</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922752</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472413</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604372</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>40.23897475306832</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143922</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>15.00954930701784</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>139.9994244361424</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685109</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.1260136526042</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>55.74112246243892</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,10 +25558,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.85445046951701</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404981</v>
       </c>
     </row>
     <row r="41">
@@ -25792,19 +25792,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>55.74112246243236</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333223</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>48.39475227997582</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404993</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>845238.400410682</v>
+        <v>845238.4004106821</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.366920277</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.3669202771</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>820565.3669202771</v>
+        <v>820565.3669202772</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>820565.3669202772</v>
+        <v>820565.366920277</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982122</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982123</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982125</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="L2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>259123.805677833</v>
+        <v>259123.8056778327</v>
       </c>
       <c r="D3" t="n">
-        <v>138712.7919296873</v>
+        <v>138712.7919296917</v>
       </c>
       <c r="E3" t="n">
-        <v>589678.7921745779</v>
+        <v>589678.7921745735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854463</v>
+        <v>49064.94472854488</v>
       </c>
       <c r="K3" t="n">
-        <v>60247.15959153571</v>
+        <v>60247.15959153558</v>
       </c>
       <c r="L3" t="n">
-        <v>33617.87336484212</v>
+        <v>33617.87336484331</v>
       </c>
       <c r="M3" t="n">
-        <v>154073.8510167282</v>
+        <v>154073.851016727</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209253.9124355573</v>
       </c>
       <c r="D4" t="n">
-        <v>170385.5244296197</v>
+        <v>170385.5244296185</v>
       </c>
       <c r="E4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685498</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685501</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685498</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685497</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685503</v>
       </c>
       <c r="M4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="N4" t="n">
-        <v>14216.75207685499</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685515</v>
+        <v>14216.75207685498</v>
       </c>
       <c r="P4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685503</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
         <v>75611.38525919238</v>
       </c>
       <c r="D5" t="n">
-        <v>86168.04029969283</v>
+        <v>86168.04029969318</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-310730.552197453</v>
+        <v>-310730.5521974532</v>
       </c>
       <c r="C6" t="n">
         <v>71792.22402562981</v>
       </c>
       <c r="D6" t="n">
-        <v>220514.9707392127</v>
+        <v>220514.9707392094</v>
       </c>
       <c r="E6" t="n">
-        <v>-99658.12430783552</v>
+        <v>-99692.86223326692</v>
       </c>
       <c r="F6" t="n">
-        <v>490020.6678667422</v>
+        <v>489985.9299413063</v>
       </c>
       <c r="G6" t="n">
-        <v>490020.6678667421</v>
+        <v>489985.9299413064</v>
       </c>
       <c r="H6" t="n">
-        <v>490020.6678667421</v>
+        <v>489985.9299413065</v>
       </c>
       <c r="I6" t="n">
-        <v>490020.6678667418</v>
+        <v>489985.9299413062</v>
       </c>
       <c r="J6" t="n">
-        <v>440955.7231381976</v>
+        <v>440920.9852127617</v>
       </c>
       <c r="K6" t="n">
-        <v>429773.5082752064</v>
+        <v>429738.7703497709</v>
       </c>
       <c r="L6" t="n">
-        <v>456402.7945018999</v>
+        <v>456368.0565764632</v>
       </c>
       <c r="M6" t="n">
-        <v>335946.8168500137</v>
+        <v>335912.0789245793</v>
       </c>
       <c r="N6" t="n">
-        <v>490020.6678667421</v>
+        <v>489985.9299413062</v>
       </c>
       <c r="O6" t="n">
-        <v>490020.6678667418</v>
+        <v>489985.9299413068</v>
       </c>
       <c r="P6" t="n">
-        <v>490020.6678667421</v>
+        <v>489985.9299413065</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.015790261611063e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.084075771919461e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.084075771919461e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
         <v>749.98095649761</v>
       </c>
       <c r="D3" t="n">
-        <v>863.7717861790426</v>
+        <v>863.7717861790461</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>421.6151382819818</v>
       </c>
       <c r="D4" t="n">
-        <v>554.4443315952255</v>
+        <v>554.4443315952299</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="L4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26826,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="P4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>7.099866033530524e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>201.5110155847055</v>
+        <v>201.5110155847053</v>
       </c>
       <c r="D3" t="n">
-        <v>113.7908296814326</v>
+        <v>113.7908296814361</v>
       </c>
       <c r="E3" t="n">
-        <v>504.2037141626312</v>
+        <v>504.2037141626274</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27015,10 +27015,10 @@
         <v>234.0895511156618</v>
       </c>
       <c r="D4" t="n">
-        <v>132.8291933132438</v>
+        <v>132.829193313248</v>
       </c>
       <c r="E4" t="n">
-        <v>618.2639565044228</v>
+        <v>618.2639565044183</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>187.5255871663203</v>
       </c>
       <c r="K4" t="n">
-        <v>234.0895511156621</v>
+        <v>234.0895511156615</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132433</v>
+        <v>132.8291933132483</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044228</v>
+        <v>618.263956504418</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>234.0895511156618</v>
       </c>
       <c r="L4" t="n">
-        <v>132.8291933132438</v>
+        <v>132.829193313248</v>
       </c>
       <c r="M4" t="n">
-        <v>618.2639565044228</v>
+        <v>618.2639565044183</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>316.7957767103903</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399023</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988683</v>
+        <v>25.91829388988677</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871038</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>290.6404425531988</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714237</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>23.36244717867589</v>
+        <v>7.884010625681213</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377092</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>215.300287159322</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27537,28 +27537,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>67.49359327760617</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>23.43375830553082</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845772</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917622</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27594,13 +27594,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>185.6955594239233</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>38.18406822271714</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>272.9034721365921</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>282.4765940341095</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.24014755885166</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U5" t="n">
         <v>251.1044530022292</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>78.12167325457857</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.65565115906497</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.85559031833734</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6625353078282</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>145.1425840639922</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6385546828073</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>70.92448091281615</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.245260737819</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>143.1238942400251</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>303.9125797832803</v>
+        <v>303.9125797832801</v>
       </c>
       <c r="I8" t="n">
-        <v>76.60428439787307</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.8916290734617</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.895202352076</v>
+        <v>153.502206700225</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0678569565025</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>299.055628723482</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27935,10 +27935,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>6.793740300518778</v>
+        <v>16.39602219800699</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>25.42862793155174</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,7 +27983,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.675990284458</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.00879733588073</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>110.3946636809773</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.4333581046933</v>
       </c>
       <c r="H10" t="n">
-        <v>148.3785035421428</v>
+        <v>148.3785035421427</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.6085557685651</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28062,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.2902986167381</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340681971946</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28284,7 +28284,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-1.004525553925901e-11</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28813,10 +28813,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.084075771919461e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>-1.641477528614854e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29752,10 +29752,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30408,7 +30408,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30645,7 +30645,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>7.106200501601931e-12</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
         <v>0.1763923428061601</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
         <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,7 +31282,7 @@
         <v>30.87735666625586</v>
       </c>
       <c r="I5" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115543</v>
       </c>
       <c r="J5" t="n">
         <v>255.8942561066896</v>
@@ -31361,7 +31361,7 @@
         <v>15.57979307743149</v>
       </c>
       <c r="I6" t="n">
-        <v>55.54104253307773</v>
+        <v>55.54104253307774</v>
       </c>
       <c r="J6" t="n">
         <v>152.4088658859908</v>
@@ -31394,7 +31394,7 @@
         <v>29.96386179969223</v>
       </c>
       <c r="T6" t="n">
-        <v>6.502193386993428</v>
+        <v>6.502193386993429</v>
       </c>
       <c r="U6" t="n">
         <v>0.1061293806364543</v>
@@ -31467,13 +31467,13 @@
         <v>113.2471244311391</v>
       </c>
       <c r="R7" t="n">
-        <v>60.80993132519963</v>
+        <v>60.80993132519964</v>
       </c>
       <c r="S7" t="n">
-        <v>23.56907366567078</v>
+        <v>23.56907366567079</v>
       </c>
       <c r="T7" t="n">
-        <v>5.778541795965189</v>
+        <v>5.77854179596519</v>
       </c>
       <c r="U7" t="n">
         <v>0.07376861867189614</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.47244939167454</v>
+        <v>3.472449391674555</v>
       </c>
       <c r="H8" t="n">
-        <v>35.5622223324869</v>
+        <v>35.56222233248704</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8716051725328</v>
+        <v>133.8716051725334</v>
       </c>
       <c r="J8" t="n">
-        <v>294.7198015566373</v>
+        <v>294.7198015566385</v>
       </c>
       <c r="K8" t="n">
-        <v>441.7085843062206</v>
+        <v>441.7085843062225</v>
       </c>
       <c r="L8" t="n">
-        <v>547.9785573766806</v>
+        <v>547.9785573766827</v>
       </c>
       <c r="M8" t="n">
-        <v>609.7317292458725</v>
+        <v>609.731729245875</v>
       </c>
       <c r="N8" t="n">
-        <v>619.5978260799679</v>
+        <v>619.5978260799704</v>
       </c>
       <c r="O8" t="n">
-        <v>585.0686574415042</v>
+        <v>585.0686574415066</v>
       </c>
       <c r="P8" t="n">
-        <v>499.3425630845389</v>
+        <v>499.3425630845409</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9854692451943</v>
+        <v>374.9854692451958</v>
       </c>
       <c r="R8" t="n">
-        <v>218.126249099776</v>
+        <v>218.1262490997769</v>
       </c>
       <c r="S8" t="n">
-        <v>79.12844051278367</v>
+        <v>79.128440512784</v>
       </c>
       <c r="T8" t="n">
-        <v>15.20064721205531</v>
+        <v>15.20064721205537</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777959513339632</v>
+        <v>0.2777959513339643</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.857924219328507</v>
+        <v>1.857924219328514</v>
       </c>
       <c r="H9" t="n">
-        <v>17.94363653930426</v>
+        <v>17.94363653930434</v>
       </c>
       <c r="I9" t="n">
-        <v>63.96800491986307</v>
+        <v>63.96800491986333</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5330947743657</v>
+        <v>175.5330947743664</v>
       </c>
       <c r="K9" t="n">
-        <v>300.0140174693756</v>
+        <v>300.0140174693768</v>
       </c>
       <c r="L9" t="n">
-        <v>403.4058705169199</v>
+        <v>403.4058705169215</v>
       </c>
       <c r="M9" t="n">
-        <v>470.7556234675781</v>
+        <v>470.7556234675801</v>
       </c>
       <c r="N9" t="n">
-        <v>483.2151240436891</v>
+        <v>483.2151240436911</v>
       </c>
       <c r="O9" t="n">
-        <v>442.0474347627785</v>
+        <v>442.0474347627803</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7820379873883</v>
+        <v>354.7820379873897</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1623968391968</v>
+        <v>237.1623968391978</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3542774070805</v>
+        <v>115.354277407081</v>
       </c>
       <c r="S9" t="n">
-        <v>34.51012749498342</v>
+        <v>34.51012749498356</v>
       </c>
       <c r="T9" t="n">
-        <v>7.488738410363584</v>
+        <v>7.488738410363614</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222318565347702</v>
+        <v>0.1222318565347707</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557621253765486</v>
+        <v>1.557621253765493</v>
       </c>
       <c r="H10" t="n">
-        <v>13.84866896529679</v>
+        <v>13.84866896529685</v>
       </c>
       <c r="I10" t="n">
-        <v>46.84191915869301</v>
+        <v>46.8419191586932</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1238226412199</v>
+        <v>110.1238226412203</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9672693011174</v>
+        <v>180.9672693011181</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5757998552797</v>
+        <v>231.5757998552807</v>
       </c>
       <c r="M10" t="n">
-        <v>244.164211624348</v>
+        <v>244.164211624349</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3585324057677</v>
+        <v>238.3585324057687</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1626841231436</v>
+        <v>220.1626841231445</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3872105463275</v>
+        <v>188.3872105463282</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4295397130354</v>
+        <v>130.429539713036</v>
       </c>
       <c r="R10" t="n">
-        <v>70.03631564658268</v>
+        <v>70.03631564658296</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1450903951676</v>
+        <v>27.14509039516771</v>
       </c>
       <c r="T10" t="n">
-        <v>6.65529081154344</v>
+        <v>6.655290811543468</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08496115929629935</v>
+        <v>0.0849611592962997</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31844,31 +31844,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630686</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32072,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533187</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,10 +32312,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9782573297445</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>361.7519118779092</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33029,10 +33029,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>277.4567226539307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>171.5999003578894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,28 +33257,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>638.9422653403551</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.5996128485291</v>
@@ -33503,16 +33503,16 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>622.4211036182644</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>691.6611968462889</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,34 +33731,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>397.4049812900381</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33971,25 +33971,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>162.5000833330452</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
         <v>375.5996128485291</v>
@@ -34205,19 +34205,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>152.1871379112069</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236508</v>
@@ -34451,10 +34451,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M45" t="n">
-        <v>281.0363767960748</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071786</v>
@@ -34469,7 +34469,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062398</v>
+        <v>92.63945645062402</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>168.9203199809856</v>
       </c>
       <c r="N4" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400495</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>98.86065188594087</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>34.55689596375521</v>
+        <v>25.57123921932407</v>
       </c>
       <c r="K6" t="n">
-        <v>387.1148251643754</v>
+        <v>122.6495881517968</v>
       </c>
       <c r="L6" t="n">
         <v>211.707952780637</v>
       </c>
       <c r="M6" t="n">
-        <v>266.6055873691791</v>
+        <v>266.605587369179</v>
       </c>
       <c r="N6" t="n">
-        <v>288.2160307407401</v>
+        <v>288.2160307407402</v>
       </c>
       <c r="O6" t="n">
-        <v>241.2171229812711</v>
+        <v>421.6151382819818</v>
       </c>
       <c r="P6" t="n">
-        <v>174.0696575289995</v>
+        <v>267.1225359852983</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.93752551686947</v>
+        <v>65.9375255168695</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.673897029951</v>
+        <v>113.6738970299522</v>
       </c>
       <c r="K8" t="n">
-        <v>221.6187332612401</v>
+        <v>221.6187332612419</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2121424066933</v>
+        <v>312.2121424066955</v>
       </c>
       <c r="M8" t="n">
-        <v>379.3854960185998</v>
+        <v>379.3854960186023</v>
       </c>
       <c r="N8" t="n">
-        <v>390.184762483377</v>
+        <v>390.1847624833795</v>
       </c>
       <c r="O8" t="n">
-        <v>354.9704460198175</v>
+        <v>354.9704460198199</v>
       </c>
       <c r="P8" t="n">
-        <v>268.1095673292693</v>
+        <v>268.1095673292714</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6797793707448</v>
+        <v>152.6797793707463</v>
       </c>
       <c r="R8" t="n">
-        <v>2.540711285643908</v>
+        <v>2.540711285644818</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.69546810769896</v>
+        <v>48.69546810769967</v>
       </c>
       <c r="K9" t="n">
-        <v>294.3012903519297</v>
+        <v>381.3232115752444</v>
       </c>
       <c r="L9" t="n">
-        <v>554.4443315952255</v>
+        <v>264.8514907370474</v>
       </c>
       <c r="M9" t="n">
-        <v>328.6215895455598</v>
+        <v>328.6215895455617</v>
       </c>
       <c r="N9" t="n">
-        <v>351.8734119603558</v>
+        <v>554.4443315952299</v>
       </c>
       <c r="O9" t="n">
-        <v>299.4511903183341</v>
+        <v>299.4511903183359</v>
       </c>
       <c r="P9" t="n">
-        <v>220.8076305730581</v>
+        <v>220.8076305730595</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.18062275317527</v>
+        <v>97.18062275317624</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.76464252454711</v>
+        <v>16.76464252454755</v>
       </c>
       <c r="K10" t="n">
-        <v>158.6977774752345</v>
+        <v>158.6977774752353</v>
       </c>
       <c r="L10" t="n">
-        <v>259.1658251155959</v>
+        <v>259.1658251155968</v>
       </c>
       <c r="M10" t="n">
-        <v>283.7480885861886</v>
+        <v>283.7480885861896</v>
       </c>
       <c r="N10" t="n">
-        <v>282.4907047849963</v>
+        <v>282.4907047849973</v>
       </c>
       <c r="O10" t="n">
-        <v>244.7478120371833</v>
+        <v>244.7478120371841</v>
       </c>
       <c r="P10" t="n">
-        <v>185.665769811221</v>
+        <v>185.6657698112217</v>
       </c>
       <c r="Q10" t="n">
-        <v>44.26749646134105</v>
+        <v>44.26749646134157</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831944</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060353</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088742</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1368183553855</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>92.97430510914305</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,10 +36677,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>138.9023428740565</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>29.46586643587111</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
@@ -36689,13 +36689,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096292</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
         <v>394.3420143191315</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>496.3460208959107</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625076</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>483.8667238383903</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>560.3194847629557</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>259.5635423156791</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O36" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>23.94570355317105</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625076</v>
@@ -37704,7 +37704,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191328</v>
       </c>
       <c r="M40" t="n">
         <v>426.2724270010452</v>
@@ -37786,7 +37786,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193518</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.34951124454016</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191386</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
         <v>426.2724270010452</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
@@ -38099,10 +38099,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M45" t="n">
-        <v>138.9023428740565</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238454</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
